--- a/results/FL/fl_results.xlsx
+++ b/results/FL/fl_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C60EF1-2D6A-4B0A-ADE1-7B68781D5B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15770A-0E06-4114-9E95-BB579EAB6D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A45D81A-34FA-419C-BD5A-5DDD8B67966E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6A45D81A-34FA-419C-BD5A-5DDD8B67966E}"/>
   </bookViews>
   <sheets>
     <sheet name="11041100" sheetId="1" r:id="rId1"/>
+    <sheet name="1104515" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Alachua</t>
   </si>
@@ -339,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -369,6 +370,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDCF275-C139-472E-85CB-F127400443BF}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,4 +1483,796 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79101CF-F409-41B3-A957-6817F8A783F3}">
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50891</v>
+      </c>
+      <c r="C2" s="12">
+        <v>89527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>11911</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>65993</v>
+      </c>
+      <c r="C4" s="11">
+        <v>25538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10334</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>207700</v>
+      </c>
+      <c r="C6" s="11">
+        <v>148403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>332960</v>
+      </c>
+      <c r="C7" s="11">
+        <v>617689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5269</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>73202</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>65230</v>
+      </c>
+      <c r="C10" s="11">
+        <v>27049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>84326</v>
+      </c>
+      <c r="C11" s="11">
+        <v>38161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>128820</v>
+      </c>
+      <c r="C12" s="11">
+        <v>77529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>23819</v>
+      </c>
+      <c r="C13" s="11">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>532409</v>
+      </c>
+      <c r="C14" s="11">
+        <v>617201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8292</v>
+      </c>
+      <c r="C15" s="11">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>6757</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>232846</v>
+      </c>
+      <c r="C17" s="11">
+        <v>250942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>96573</v>
+      </c>
+      <c r="C18" s="11">
+        <v>70824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <v>42991</v>
+      </c>
+      <c r="C19" s="11">
+        <v>28124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4672</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>7461</v>
+      </c>
+      <c r="C21" s="11">
+        <v>16139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>7893</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3781</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6111</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3811</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
+        <v>6120</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11">
+        <v>7898</v>
+      </c>
+      <c r="C27" s="11">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
+        <v>70321</v>
+      </c>
+      <c r="C28" s="11">
+        <v>37446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11">
+        <v>34787</v>
+      </c>
+      <c r="C29" s="11">
+        <v>16861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <v>326158</v>
+      </c>
+      <c r="C30" s="11">
+        <v>374714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8074</v>
+      </c>
+      <c r="C31" s="13">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>58797</v>
+      </c>
+      <c r="C32" s="11">
+        <v>37801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <v>15466</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
+        <v>4474</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3126</v>
+      </c>
+      <c r="C35" s="13">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
+        <v>125687</v>
+      </c>
+      <c r="C36" s="11">
+        <v>83273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
+        <v>232075</v>
+      </c>
+      <c r="C37" s="11">
+        <v>156957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
+        <v>57384</v>
+      </c>
+      <c r="C38" s="11">
+        <v>103364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11">
+        <v>16721</v>
+      </c>
+      <c r="C39" s="11">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2846</v>
+      </c>
+      <c r="C40" s="13">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11">
+        <v>5573</v>
+      </c>
+      <c r="C41" s="11">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11">
+        <v>124827</v>
+      </c>
+      <c r="C42" s="11">
+        <v>90007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11">
+        <v>127744</v>
+      </c>
+      <c r="C43" s="11">
+        <v>74802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11">
+        <v>61133</v>
+      </c>
+      <c r="C44" s="11">
+        <v>36873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11">
+        <v>25668</v>
+      </c>
+      <c r="C45" s="11">
+        <v>21848</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
+        <v>42502</v>
+      </c>
+      <c r="C46" s="11">
+        <v>15542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11">
+        <v>79633</v>
+      </c>
+      <c r="C47" s="11">
+        <v>34165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11">
+        <v>11460</v>
+      </c>
+      <c r="C48" s="11">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11">
+        <v>245162</v>
+      </c>
+      <c r="C49" s="11">
+        <v>394602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11">
+        <v>73373</v>
+      </c>
+      <c r="C50" s="11">
+        <v>97157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11">
+        <v>332760</v>
+      </c>
+      <c r="C51" s="11">
+        <v>429856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11">
+        <v>179343</v>
+      </c>
+      <c r="C52" s="11">
+        <v>118767</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11">
+        <v>275949</v>
+      </c>
+      <c r="C53" s="11">
+        <v>277191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11">
+        <v>194271</v>
+      </c>
+      <c r="C54" s="11">
+        <v>144775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11">
+        <v>25496</v>
+      </c>
+      <c r="C55" s="11">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11">
+        <v>110886</v>
+      </c>
+      <c r="C56" s="11">
+        <v>63808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11">
+        <v>86748</v>
+      </c>
+      <c r="C57" s="11">
+        <v>84005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11">
+        <v>77306</v>
+      </c>
+      <c r="C58" s="11">
+        <v>27560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11">
+        <v>148065</v>
+      </c>
+      <c r="C59" s="11">
+        <v>119892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11">
+        <v>125035</v>
+      </c>
+      <c r="C60" s="11">
+        <v>132213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11">
+        <v>62753</v>
+      </c>
+      <c r="C61" s="11">
+        <v>29326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11">
+        <v>16387</v>
+      </c>
+      <c r="C62" s="11">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11">
+        <v>7725</v>
+      </c>
+      <c r="C63" s="11">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11">
+        <v>5130</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11">
+        <v>173544</v>
+      </c>
+      <c r="C65" s="11">
+        <v>130395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="11">
+        <v>12868</v>
+      </c>
+      <c r="C66" s="11">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="11">
+        <v>32924</v>
+      </c>
+      <c r="C67" s="11">
+        <v>10333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11">
+        <v>9869</v>
+      </c>
+      <c r="C68" s="11">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>5646949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>